--- a/biology/Zoologie/Cuivré_des_tourbières/Cuivré_des_tourbières.xlsx
+++ b/biology/Zoologie/Cuivré_des_tourbières/Cuivré_des_tourbières.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cuivr%C3%A9_des_tourbi%C3%A8res</t>
+          <t>Cuivré_des_tourbières</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lycaena epixanthe
 Le Cuivré des tourbières (Lycaena epixanthe) est une espèce d'insectes lépidoptères (papillons) de la famille des Lycaenidae et de la sous-famille des Lycaeninae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cuivr%C3%A9_des_tourbi%C3%A8res</t>
+          <t>Cuivré_des_tourbières</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,15 +524,13 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Lycaena epixanthe nommé par Jean-Baptiste Alphonse Dechauffour de Boisduval et John Eatton Le Conte en 1833.
-Synonymes : Polyommatus epixanthe Boisduval &amp; Leconte, [1833]; Epidemia epixanthe ; Dyar, 1903[1].
-Noms vernaculaires
-Le Cuivré des tourbières se nomme Bog Copper ou Cranberry-Bog Copper en anglais[1].
-Sous-espèces
-Lycaena epixanthe epixanthe
-Lycaena epixanthe michiganensis Rawson, 1948[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lycaena epixanthe nommé par Jean-Baptiste Alphonse Dechauffour de Boisduval et John Eatton Le Conte en 1833.
+Synonymes : Polyommatus epixanthe Boisduval &amp; Leconte, ; Epidemia epixanthe ; Dyar, 1903.
+</t>
         </is>
       </c>
     </row>
@@ -530,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cuivr%C3%A9_des_tourbi%C3%A8res</t>
+          <t>Cuivré_des_tourbières</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,15 +555,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le Cuivré des tourbières est un petit cuivré (d'une envergure de 17 à 20 mm) qui présente un certain dimorphisme. Le dessus des ailes du mâle est marron à reflets violets avec au milieu de chaque aile un gros point noir. D'autres taches, plus petites sont peu visibles chez le mâle, bien marquées chez les femelles.
-Le revers, est d'une couleur qui varie suivant les sous-espèces, blanc, jaune pâle ou gris clair avec une bande submarginale de fins chevrons de couleur orange aux postérieures[2],[3].
-Chenille
-La chenille, de couleur bleu-vert, est ornée d'une bande dorsale vert foncé et de taches elles aussi vert foncé sur les flancs,  et recouverte d'une pubescence blanche[2].
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Cuivré des tourbières se nomme Bog Copper ou Cranberry-Bog Copper en anglais.
 </t>
         </is>
       </c>
@@ -564,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cuivr%C3%A9_des_tourbi%C3%A8res</t>
+          <t>Cuivré_des_tourbières</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,17 +592,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Période de vol et hivernage
-Il vole en une génération entre juin et septembre, suivant les lieux dans son aire de répartition. Il vole de mi-juin à mi-juillet à Ottawa, fin juillet à mi-août au Manitoba[4],[2].
-Il hiverne à l'état chenille formée dans l'œuf[4].
-Plantes hôtes
-Ses plantes hôte sont la Canneberge (Vaccinium oxycoccos) et la Canneberge à gros fruits (Vaccinium macrocarpon)[1],[2].
-</t>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Lycaena epixanthe epixanthe
+Lycaena epixanthe michiganensis Rawson, 1948.</t>
         </is>
       </c>
     </row>
@@ -599,7 +614,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cuivr%C3%A9_des_tourbi%C3%A8res</t>
+          <t>Cuivré_des_tourbières</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -614,16 +629,234 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Cuivré des tourbières est un petit cuivré (d'une envergure de 17 à 20 mm) qui présente un certain dimorphisme. Le dessus des ailes du mâle est marron à reflets violets avec au milieu de chaque aile un gros point noir. D'autres taches, plus petites sont peu visibles chez le mâle, bien marquées chez les femelles.
+Le revers, est d'une couleur qui varie suivant les sous-espèces, blanc, jaune pâle ou gris clair avec une bande submarginale de fins chevrons de couleur orange aux postérieures,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cuivré_des_tourbières</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cuivr%C3%A9_des_tourbi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille, de couleur bleu-vert, est ornée d'une bande dorsale vert foncé et de taches elles aussi vert foncé sur les flancs,  et recouverte d'une pubescence blanche.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cuivré_des_tourbières</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cuivr%C3%A9_des_tourbi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernage</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vole en une génération entre juin et septembre, suivant les lieux dans son aire de répartition. Il vole de mi-juin à mi-juillet à Ottawa, fin juillet à mi-août au Manitoba,.
+Il hiverne à l'état chenille formée dans l'œuf.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cuivré_des_tourbières</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cuivr%C3%A9_des_tourbi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses plantes hôte sont la Canneberge (Vaccinium oxycoccos) et la Canneberge à gros fruits (Vaccinium macrocarpon),.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Cuivré_des_tourbières</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cuivr%C3%A9_des_tourbi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Cuivré des tourbières est présent en Amérique du Nord, au Canada du Manitoba à Terre-Neuve et dans le nord-est des USA, dans les états limitrophes du Canada du Minnesota, Wisconsin, Michigan, Pennsylvanie et jusqu'au Maine[2],[3].
-Biotope
-Il réside dans les tourbières.
-Protection
-Pas de statut de protection particulier, mais il est nécessaire de conserver les habitats[3].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Cuivré des tourbières est présent en Amérique du Nord, au Canada du Manitoba à Terre-Neuve et dans le nord-est des USA, dans les états limitrophes du Canada du Minnesota, Wisconsin, Michigan, Pennsylvanie et jusqu'au Maine,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Cuivré_des_tourbières</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cuivr%C3%A9_des_tourbi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans les tourbières.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Cuivré_des_tourbières</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cuivr%C3%A9_des_tourbi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier, mais il est nécessaire de conserver les habitats.
 </t>
         </is>
       </c>
